--- a/product_ranking_magnetic_eyelash.xlsx
+++ b/product_ranking_magnetic_eyelash.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Market Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\Market Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
-  <si>
-    <t>2018-10-11 16:10:27</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
+  <si>
+    <t>2018-10-12 07:27:39</t>
   </si>
   <si>
     <t>2018-10-11 15:28:03</t>
@@ -49,9 +49,6 @@
     <t>2018-10-10 14:54:10</t>
   </si>
   <si>
-    <t>bulk synthetic magnetic false eyelash magnet lash magnetic eye lash with triple magnets lash eyelash magnetic eyelashes</t>
-  </si>
-  <si>
     <t>bulk synthetic magnetic eyelash magnet lash magnetic eye lash with triple magnets lash false eyelash magnetic eyelashes</t>
   </si>
   <si>
@@ -100,27 +97,27 @@
     <t>magnetic eyelash</t>
   </si>
   <si>
+    <t>3-16</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>eyelash magnetic</t>
+  </si>
+  <si>
     <t>3-15</t>
   </si>
   <si>
-    <t>3-16</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3-11</t>
-  </si>
-  <si>
-    <t>eyelash magnetic</t>
-  </si>
-  <si>
     <t>3-19</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
     <t>magnetic lash</t>
   </si>
   <si>
+    <t>1-6</t>
+  </si>
+  <si>
     <t>2-33</t>
   </si>
   <si>
@@ -148,6 +148,9 @@
     <t>eyelash magnet</t>
   </si>
   <si>
+    <t>1-4</t>
+  </si>
+  <si>
     <t>1-23</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>magnetic false eyelash</t>
   </si>
   <si>
+    <t>1-5</t>
+  </si>
+  <si>
     <t>2-30</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
     <t>magnet for eyelash</t>
   </si>
   <si>
+    <t>20-31</t>
+  </si>
+  <si>
     <t>20-32</t>
   </si>
   <si>
@@ -233,6 +242,10 @@
   </si>
   <si>
     <t>20-20</t>
+  </si>
+  <si>
+    <t>bulk synthetic magnetic eyelash magnet lash magnetic eye lash with triple magnets lash false eyelash magnetic eyelashes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -856,7 +869,7 @@
   <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -981,35 +994,35 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="15">
-        <f>LEN(F3)</f>
+        <f>LEN(E3)</f>
         <v>119</v>
       </c>
       <c r="E3" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="G3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -1036,31 +1049,31 @@
       <c r="C4" s="17"/>
       <c r="D4" s="15"/>
       <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -1087,31 +1100,31 @@
       <c r="C5" s="17"/>
       <c r="D5" s="40"/>
       <c r="E5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -1138,31 +1151,31 @@
       <c r="C6" s="17"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="40" t="s">
+      <c r="M6" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -1194,34 +1207,34 @@
         <v>1429</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" s="32" t="s">
         <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
@@ -1254,34 +1267,34 @@
         <v>595</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="64" t="s">
-        <v>35</v>
-      </c>
       <c r="M8" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N8" s="42"/>
       <c r="O8" s="42"/>
@@ -1314,10 +1327,10 @@
         <v>581</v>
       </c>
       <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -1380,25 +1393,25 @@
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" s="32" t="s">
         <v>40</v>
@@ -1434,31 +1447,31 @@
         <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L11" s="64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M11" s="32" t="s">
         <v>40</v>
@@ -1494,7 +1507,7 @@
         <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
@@ -1554,34 +1567,34 @@
         <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L13" s="64" t="s">
         <v>40</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N13" s="51"/>
       <c r="O13" s="51"/>
@@ -1614,31 +1627,31 @@
         <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L14" s="64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M14" s="32" t="s">
         <v>40</v>
@@ -1674,25 +1687,25 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
         <v>40</v>
@@ -1734,31 +1747,31 @@
         <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L16" s="64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M16" s="52" t="s">
         <v>40</v>
@@ -1794,28 +1807,28 @@
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
         <v>43</v>
       </c>
-      <c r="H17" t="s">
-        <v>42</v>
-      </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L17" s="64" t="s">
         <v>40</v>
@@ -1854,34 +1867,34 @@
         <v>45</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J18" s="55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K18" s="55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L18" s="65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M18" s="56" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N18" s="57"/>
       <c r="O18" s="57"/>
@@ -3621,7 +3634,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3659,7 +3672,7 @@
         <v>1429</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -3673,7 +3686,7 @@
         <v>595</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -3687,7 +3700,7 @@
         <v>581</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -3715,7 +3728,7 @@
         <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -3729,7 +3742,7 @@
         <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -3743,7 +3756,7 @@
         <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -3757,7 +3770,7 @@
         <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -3771,7 +3784,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -3785,7 +3798,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -3799,7 +3812,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -3813,7 +3826,7 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/product_ranking_magnetic_eyelash.xlsx
+++ b/product_ranking_magnetic_eyelash.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\Market Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Market Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="79">
+  <si>
+    <t>2018-10-12 09:15:49</t>
+  </si>
   <si>
     <t>2018-10-12 07:27:39</t>
   </si>
@@ -49,6 +52,9 @@
     <t>2018-10-10 14:54:10</t>
   </si>
   <si>
+    <t>bulk synthetic false magnetic eyelash magnet lash magnetic eye lash with triple magnets lash eyelash magnetic eyelashes</t>
+  </si>
+  <si>
     <t>bulk synthetic magnetic eyelash magnet lash magnetic eye lash with triple magnets lash false eyelash magnetic eyelashes</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>Wholesale 3D Synthetic Magnetic Eyelash Bulk Magnetic Lash Private Label Magnet Eyelash Lash Magnetized Eyelash Magnetic Lash</t>
   </si>
   <si>
+    <t>lash magnetic</t>
+  </si>
+  <si>
     <t>false eyelash magnetic</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
     <t>eyelash magnetic</t>
   </si>
   <si>
+    <t>3-18</t>
+  </si>
+  <si>
     <t>3-15</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
     <t>magnetic lash</t>
   </si>
   <si>
+    <t>2-32</t>
+  </si>
+  <si>
     <t>1-6</t>
   </si>
   <si>
@@ -148,12 +163,12 @@
     <t>eyelash magnet</t>
   </si>
   <si>
+    <t>1-23</t>
+  </si>
+  <si>
     <t>1-4</t>
   </si>
   <si>
-    <t>1-23</t>
-  </si>
-  <si>
     <t>1-22</t>
   </si>
   <si>
@@ -223,12 +238,12 @@
     <t>magnet for eyelash</t>
   </si>
   <si>
+    <t>20-32</t>
+  </si>
+  <si>
     <t>20-31</t>
   </si>
   <si>
-    <t>20-32</t>
-  </si>
-  <si>
     <t>20-30</t>
   </si>
   <si>
@@ -242,10 +257,6 @@
   </si>
   <si>
     <t>20-20</t>
-  </si>
-  <si>
-    <t>bulk synthetic magnetic eyelash magnet lash magnetic eye lash with triple magnets lash false eyelash magnetic eyelashes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -866,27 +877,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AG75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="4.625" style="17" customWidth="1"/>
-    <col min="4" max="12" width="30.625" style="20" customWidth="1"/>
-    <col min="13" max="22" width="30.625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="30.625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="30.625" style="4" customWidth="1"/>
-    <col min="25" max="28" width="31" style="4" customWidth="1"/>
-    <col min="29" max="29" width="31" style="8" customWidth="1"/>
-    <col min="30" max="30" width="41.625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="45.75" style="3" customWidth="1"/>
-    <col min="32" max="32" width="40.625" style="34" customWidth="1"/>
+    <col min="4" max="13" width="30.625" style="20" customWidth="1"/>
+    <col min="14" max="23" width="30.625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="30.625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="30.625" style="4" customWidth="1"/>
+    <col min="26" max="29" width="31" style="4" customWidth="1"/>
+    <col min="30" max="30" width="31" style="8" customWidth="1"/>
+    <col min="31" max="31" width="41.625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="45.75" style="3" customWidth="1"/>
+    <col min="33" max="33" width="40.625" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -918,7 +929,9 @@
       <c r="M1" s="34">
         <v>60763607812</v>
       </c>
-      <c r="N1" s="34"/>
+      <c r="N1" s="34">
+        <v>60763607812</v>
+      </c>
       <c r="O1" s="34"/>
       <c r="P1" s="34"/>
       <c r="Q1" s="34"/>
@@ -929,15 +942,16 @@
       <c r="V1" s="34"/>
       <c r="W1" s="34"/>
       <c r="X1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="Y1" s="34"/>
       <c r="AA1" s="34"/>
       <c r="AB1" s="34"/>
       <c r="AC1" s="34"/>
       <c r="AD1" s="34"/>
       <c r="AE1" s="34"/>
       <c r="AF1" s="34"/>
-    </row>
-    <row r="2" spans="1:32" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG1" s="34"/>
+    </row>
+    <row r="2" spans="1:33" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -966,10 +980,12 @@
       <c r="L2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="25"/>
+      <c r="N2" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
@@ -977,19 +993,20 @@
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
-      <c r="V2" s="43"/>
+      <c r="V2" s="25"/>
       <c r="W2" s="43"/>
       <c r="X2" s="43"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="26"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="25"/>
       <c r="AA2" s="26"/>
-      <c r="AB2" s="27"/>
+      <c r="AB2" s="26"/>
       <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="43"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="28"/>
       <c r="AF2" s="43"/>
-    </row>
-    <row r="3" spans="1:32" s="13" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG2" s="43"/>
+    </row>
+    <row r="3" spans="1:33" s="13" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -998,205 +1015,217 @@
         <v>119</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="66" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="O3" s="12"/>
-      <c r="P3" s="11"/>
+      <c r="P3" s="12"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="12"/>
-      <c r="Z3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="12"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
-      <c r="AD3" s="12"/>
+      <c r="AD3" s="11"/>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
-    </row>
-    <row r="4" spans="1:32" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG3" s="12"/>
+    </row>
+    <row r="4" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="15"/>
       <c r="E4" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
-      <c r="Z4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="12"/>
+      <c r="AD4" s="11"/>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
-    </row>
-    <row r="5" spans="1:32" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="40"/>
       <c r="E5" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="12"/>
-      <c r="Z5" s="11"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="12"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="12"/>
+      <c r="AD5" s="11"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
-    </row>
-    <row r="6" spans="1:32" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG5" s="12"/>
+    </row>
+    <row r="6" spans="1:33" s="13" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="14"/>
-      <c r="Z6" s="11"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="14"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="12"/>
+      <c r="AD6" s="11"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12"/>
-    </row>
-    <row r="7" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG6" s="12"/>
+    </row>
+    <row r="7" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>421</v>
       </c>
@@ -1207,36 +1236,38 @@
         <v>1429</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
       <c r="Q7" s="33"/>
@@ -1244,19 +1275,20 @@
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="35"/>
       <c r="Z7" s="33"/>
-      <c r="AA7" s="36"/>
+      <c r="AA7" s="33"/>
       <c r="AB7" s="36"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="38"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="37"/>
       <c r="AE7" s="38"/>
-      <c r="AF7" s="39"/>
-    </row>
-    <row r="8" spans="1:32" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="39"/>
+    </row>
+    <row r="8" spans="1:33" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>128</v>
       </c>
@@ -1267,36 +1299,38 @@
         <v>595</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
       <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="42"/>
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="O8" s="42"/>
       <c r="P8" s="42"/>
       <c r="Q8" s="42"/>
@@ -1304,19 +1338,20 @@
       <c r="S8" s="42"/>
       <c r="T8" s="42"/>
       <c r="U8" s="42"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="44"/>
       <c r="Z8" s="42"/>
-      <c r="AA8" s="45"/>
+      <c r="AA8" s="42"/>
       <c r="AB8" s="45"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="47"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="46"/>
       <c r="AE8" s="47"/>
-      <c r="AF8" s="48"/>
-    </row>
-    <row r="9" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="48"/>
+    </row>
+    <row r="9" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>180</v>
       </c>
@@ -1327,36 +1362,38 @@
         <v>581</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="33"/>
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>44</v>
+      </c>
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
@@ -1364,19 +1401,20 @@
       <c r="S9" s="33"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="32"/>
       <c r="Z9" s="33"/>
-      <c r="AA9" s="36"/>
+      <c r="AA9" s="33"/>
       <c r="AB9" s="36"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="38"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="37"/>
       <c r="AE9" s="38"/>
-      <c r="AF9" s="39"/>
-    </row>
-    <row r="10" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="39"/>
+    </row>
+    <row r="10" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>76</v>
       </c>
@@ -1387,36 +1425,38 @@
         <v>524</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="33"/>
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
@@ -1424,19 +1464,20 @@
       <c r="S10" s="33"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="32"/>
       <c r="Z10" s="33"/>
-      <c r="AA10" s="36"/>
+      <c r="AA10" s="33"/>
       <c r="AB10" s="36"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="38"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="37"/>
       <c r="AE10" s="38"/>
-      <c r="AF10" s="39"/>
-    </row>
-    <row r="11" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="39"/>
+    </row>
+    <row r="11" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>256</v>
       </c>
@@ -1447,36 +1488,38 @@
         <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="33"/>
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -1484,19 +1527,20 @@
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="32"/>
       <c r="Z11" s="33"/>
-      <c r="AA11" s="36"/>
+      <c r="AA11" s="33"/>
       <c r="AB11" s="36"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="38"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="37"/>
       <c r="AE11" s="38"/>
-      <c r="AF11" s="39"/>
-    </row>
-    <row r="12" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="39"/>
+    </row>
+    <row r="12" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>54</v>
       </c>
@@ -1507,36 +1551,38 @@
         <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="33"/>
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -1544,19 +1590,20 @@
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="32"/>
       <c r="Z12" s="33"/>
-      <c r="AA12" s="36"/>
+      <c r="AA12" s="33"/>
       <c r="AB12" s="36"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="38"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="37"/>
       <c r="AE12" s="38"/>
-      <c r="AF12" s="39"/>
-    </row>
-    <row r="13" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="39"/>
+    </row>
+    <row r="13" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>102</v>
       </c>
@@ -1567,56 +1614,59 @@
         <v>136</v>
       </c>
       <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="51"/>
+        <v>60</v>
+      </c>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>60</v>
+      </c>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
       <c r="Q13" s="51"/>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="32"/>
       <c r="Z13" s="51"/>
-      <c r="AA13" s="36"/>
+      <c r="AA13" s="51"/>
       <c r="AB13" s="36"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="38"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="37"/>
       <c r="AE13" s="38"/>
-      <c r="AF13" s="39"/>
-    </row>
-    <row r="14" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="39"/>
+    </row>
+    <row r="14" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>31</v>
       </c>
@@ -1627,36 +1677,38 @@
         <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="33"/>
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
@@ -1664,19 +1716,20 @@
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="32"/>
       <c r="Z14" s="33"/>
-      <c r="AA14" s="36"/>
+      <c r="AA14" s="33"/>
       <c r="AB14" s="36"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="38"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="37"/>
       <c r="AE14" s="38"/>
-      <c r="AF14" s="39"/>
-    </row>
-    <row r="15" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="39"/>
+    </row>
+    <row r="15" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>23</v>
       </c>
@@ -1687,36 +1740,38 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="33"/>
+        <v>67</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
@@ -1724,19 +1779,20 @@
       <c r="S15" s="33"/>
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="32"/>
       <c r="Z15" s="33"/>
-      <c r="AA15" s="36"/>
+      <c r="AA15" s="33"/>
       <c r="AB15" s="36"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="38"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="37"/>
       <c r="AE15" s="38"/>
-      <c r="AF15" s="39"/>
-    </row>
-    <row r="16" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="39"/>
+    </row>
+    <row r="16" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>78</v>
       </c>
@@ -1747,56 +1803,59 @@
         <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="53"/>
+        <v>55</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="52" t="s">
+        <v>45</v>
+      </c>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
       <c r="R16" s="53"/>
       <c r="S16" s="53"/>
       <c r="T16" s="53"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="32"/>
       <c r="Z16" s="53"/>
-      <c r="AA16" s="36"/>
+      <c r="AA16" s="53"/>
       <c r="AB16" s="36"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="38"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="37"/>
       <c r="AE16" s="38"/>
-      <c r="AF16" s="39"/>
-    </row>
-    <row r="17" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="39"/>
+    </row>
+    <row r="17" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1807,36 +1866,38 @@
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="33"/>
+        <v>62</v>
+      </c>
+      <c r="L17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
       <c r="Q17" s="33"/>
@@ -1844,19 +1905,20 @@
       <c r="S17" s="33"/>
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="32"/>
       <c r="Z17" s="33"/>
-      <c r="AA17" s="36"/>
+      <c r="AA17" s="33"/>
       <c r="AB17" s="36"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="38"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="37"/>
       <c r="AE17" s="38"/>
-      <c r="AF17" s="39"/>
-    </row>
-    <row r="18" spans="1:32" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="39"/>
+    </row>
+    <row r="18" spans="1:33" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <v>2</v>
       </c>
@@ -1867,36 +1929,38 @@
         <v>45</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J18" s="55" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K18" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="57"/>
+        <v>76</v>
+      </c>
+      <c r="L18" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>78</v>
+      </c>
       <c r="O18" s="57"/>
       <c r="P18" s="57"/>
       <c r="Q18" s="57"/>
@@ -1904,19 +1968,20 @@
       <c r="S18" s="57"/>
       <c r="T18" s="57"/>
       <c r="U18" s="57"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="56"/>
       <c r="Z18" s="57"/>
-      <c r="AA18" s="59"/>
+      <c r="AA18" s="57"/>
       <c r="AB18" s="59"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="61"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="60"/>
       <c r="AE18" s="61"/>
-      <c r="AF18" s="62"/>
-    </row>
-    <row r="19" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="62"/>
+    </row>
+    <row r="19" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54"/>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -1929,8 +1994,8 @@
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="32"/>
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="33"/>
@@ -1938,19 +2003,20 @@
       <c r="S19" s="33"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="32"/>
       <c r="Z19" s="33"/>
-      <c r="AA19" s="36"/>
+      <c r="AA19" s="33"/>
       <c r="AB19" s="36"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="38"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="37"/>
       <c r="AE19" s="38"/>
-      <c r="AF19" s="39"/>
-    </row>
-    <row r="20" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="39"/>
+    </row>
+    <row r="20" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -1963,8 +2029,8 @@
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
       <c r="Q20" s="33"/>
@@ -1972,19 +2038,20 @@
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
       <c r="U20" s="33"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="32"/>
       <c r="Z20" s="33"/>
-      <c r="AA20" s="36"/>
+      <c r="AA20" s="33"/>
       <c r="AB20" s="36"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="38"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="37"/>
       <c r="AE20" s="38"/>
-      <c r="AF20" s="39"/>
-    </row>
-    <row r="21" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="39"/>
+    </row>
+    <row r="21" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
@@ -1997,8 +2064,8 @@
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="33"/>
@@ -2006,19 +2073,20 @@
       <c r="S21" s="33"/>
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="32"/>
       <c r="Z21" s="33"/>
-      <c r="AA21" s="36"/>
+      <c r="AA21" s="33"/>
       <c r="AB21" s="36"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="38"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="37"/>
       <c r="AE21" s="38"/>
-      <c r="AF21" s="39"/>
-    </row>
-    <row r="22" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="39"/>
+    </row>
+    <row r="22" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -2031,8 +2099,8 @@
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="32"/>
       <c r="O22" s="33"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
@@ -2040,19 +2108,20 @@
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="32"/>
       <c r="Z22" s="33"/>
-      <c r="AA22" s="36"/>
+      <c r="AA22" s="33"/>
       <c r="AB22" s="36"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="38"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="37"/>
       <c r="AE22" s="38"/>
-      <c r="AF22" s="39"/>
-    </row>
-    <row r="23" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="39"/>
+    </row>
+    <row r="23" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -2065,8 +2134,8 @@
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
       <c r="O23" s="33"/>
       <c r="P23" s="33"/>
       <c r="Q23" s="33"/>
@@ -2074,19 +2143,20 @@
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="32"/>
       <c r="Z23" s="33"/>
-      <c r="AA23" s="36"/>
+      <c r="AA23" s="33"/>
       <c r="AB23" s="36"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="38"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="37"/>
       <c r="AE23" s="38"/>
-      <c r="AF23" s="39"/>
-    </row>
-    <row r="24" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="39"/>
+    </row>
+    <row r="24" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -2099,8 +2169,8 @@
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="33"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
       <c r="O24" s="33"/>
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
@@ -2108,19 +2178,20 @@
       <c r="S24" s="33"/>
       <c r="T24" s="33"/>
       <c r="U24" s="33"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="32"/>
       <c r="Z24" s="33"/>
-      <c r="AA24" s="36"/>
+      <c r="AA24" s="33"/>
       <c r="AB24" s="36"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="38"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="37"/>
       <c r="AE24" s="38"/>
-      <c r="AF24" s="39"/>
-    </row>
-    <row r="25" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="39"/>
+    </row>
+    <row r="25" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -2133,8 +2204,8 @@
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
       <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="33"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="32"/>
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
@@ -2142,19 +2213,20 @@
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
       <c r="U25" s="33"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="32"/>
       <c r="Z25" s="33"/>
-      <c r="AA25" s="36"/>
+      <c r="AA25" s="33"/>
       <c r="AB25" s="36"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="38"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="37"/>
       <c r="AE25" s="38"/>
-      <c r="AF25" s="39"/>
-    </row>
-    <row r="26" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="39"/>
+    </row>
+    <row r="26" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -2167,8 +2239,8 @@
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="33"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="32"/>
       <c r="O26" s="33"/>
       <c r="P26" s="33"/>
       <c r="Q26" s="33"/>
@@ -2176,19 +2248,20 @@
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
       <c r="U26" s="33"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="32"/>
       <c r="Z26" s="33"/>
-      <c r="AA26" s="36"/>
+      <c r="AA26" s="33"/>
       <c r="AB26" s="36"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="38"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="37"/>
       <c r="AE26" s="38"/>
-      <c r="AF26" s="39"/>
-    </row>
-    <row r="27" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="39"/>
+    </row>
+    <row r="27" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -2201,8 +2274,8 @@
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="32"/>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
       <c r="Q27" s="33"/>
@@ -2210,19 +2283,20 @@
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
       <c r="U27" s="33"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="32"/>
       <c r="Z27" s="33"/>
-      <c r="AA27" s="36"/>
+      <c r="AA27" s="33"/>
       <c r="AB27" s="36"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="38"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="37"/>
       <c r="AE27" s="38"/>
-      <c r="AF27" s="39"/>
-    </row>
-    <row r="28" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="39"/>
+    </row>
+    <row r="28" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
@@ -2235,8 +2309,8 @@
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
       <c r="L28" s="31"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="33"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="32"/>
       <c r="O28" s="33"/>
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
@@ -2244,19 +2318,20 @@
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
       <c r="U28" s="33"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="32"/>
       <c r="Z28" s="33"/>
-      <c r="AA28" s="36"/>
+      <c r="AA28" s="33"/>
       <c r="AB28" s="36"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="38"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="37"/>
       <c r="AE28" s="38"/>
-      <c r="AF28" s="39"/>
-    </row>
-    <row r="29" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="39"/>
+    </row>
+    <row r="29" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54"/>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -2269,8 +2344,8 @@
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
       <c r="L29" s="31"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="33"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="32"/>
       <c r="O29" s="33"/>
       <c r="P29" s="33"/>
       <c r="Q29" s="33"/>
@@ -2278,19 +2353,20 @@
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
       <c r="U29" s="33"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="32"/>
       <c r="Z29" s="33"/>
-      <c r="AA29" s="36"/>
+      <c r="AA29" s="33"/>
       <c r="AB29" s="36"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="38"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="37"/>
       <c r="AE29" s="38"/>
-      <c r="AF29" s="39"/>
-    </row>
-    <row r="30" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="39"/>
+    </row>
+    <row r="30" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -2303,8 +2379,8 @@
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
       <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
       <c r="O30" s="33"/>
       <c r="P30" s="33"/>
       <c r="Q30" s="33"/>
@@ -2312,19 +2388,20 @@
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="32"/>
       <c r="Z30" s="33"/>
-      <c r="AA30" s="36"/>
+      <c r="AA30" s="33"/>
       <c r="AB30" s="36"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="38"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="37"/>
       <c r="AE30" s="38"/>
-      <c r="AF30" s="39"/>
-    </row>
-    <row r="31" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="39"/>
+    </row>
+    <row r="31" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -2337,8 +2414,8 @@
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="33"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="32"/>
       <c r="O31" s="33"/>
       <c r="P31" s="33"/>
       <c r="Q31" s="33"/>
@@ -2346,19 +2423,20 @@
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="32"/>
       <c r="Z31" s="33"/>
-      <c r="AA31" s="36"/>
+      <c r="AA31" s="33"/>
       <c r="AB31" s="36"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="38"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="37"/>
       <c r="AE31" s="38"/>
-      <c r="AF31" s="39"/>
-    </row>
-    <row r="32" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="39"/>
+    </row>
+    <row r="32" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -2371,8 +2449,8 @@
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="33"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="32"/>
       <c r="O32" s="33"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="33"/>
@@ -2380,19 +2458,20 @@
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="32"/>
       <c r="Z32" s="33"/>
-      <c r="AA32" s="36"/>
+      <c r="AA32" s="33"/>
       <c r="AB32" s="36"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="38"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="37"/>
       <c r="AE32" s="38"/>
-      <c r="AF32" s="39"/>
-    </row>
-    <row r="33" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="39"/>
+    </row>
+    <row r="33" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54"/>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
@@ -2405,8 +2484,8 @@
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
       <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="33"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="32"/>
       <c r="O33" s="33"/>
       <c r="P33" s="33"/>
       <c r="Q33" s="33"/>
@@ -2414,19 +2493,20 @@
       <c r="S33" s="33"/>
       <c r="T33" s="33"/>
       <c r="U33" s="33"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="32"/>
       <c r="Z33" s="33"/>
-      <c r="AA33" s="36"/>
+      <c r="AA33" s="33"/>
       <c r="AB33" s="36"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="38"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="37"/>
       <c r="AE33" s="38"/>
-      <c r="AF33" s="39"/>
-    </row>
-    <row r="34" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="39"/>
+    </row>
+    <row r="34" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
@@ -2439,8 +2519,8 @@
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
       <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="33"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="32"/>
       <c r="O34" s="33"/>
       <c r="P34" s="33"/>
       <c r="Q34" s="33"/>
@@ -2448,19 +2528,20 @@
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
       <c r="U34" s="33"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="32"/>
       <c r="Z34" s="33"/>
-      <c r="AA34" s="36"/>
+      <c r="AA34" s="33"/>
       <c r="AB34" s="36"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="38"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="37"/>
       <c r="AE34" s="38"/>
-      <c r="AF34" s="39"/>
-    </row>
-    <row r="35" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="39"/>
+    </row>
+    <row r="35" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -2473,8 +2554,8 @@
       <c r="J35" s="31"/>
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="33"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="32"/>
       <c r="O35" s="33"/>
       <c r="P35" s="33"/>
       <c r="Q35" s="33"/>
@@ -2482,19 +2563,20 @@
       <c r="S35" s="33"/>
       <c r="T35" s="33"/>
       <c r="U35" s="33"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="32"/>
       <c r="Z35" s="33"/>
-      <c r="AA35" s="36"/>
+      <c r="AA35" s="33"/>
       <c r="AB35" s="36"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="38"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="37"/>
       <c r="AE35" s="38"/>
-      <c r="AF35" s="39"/>
-    </row>
-    <row r="36" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="39"/>
+    </row>
+    <row r="36" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -2507,8 +2589,8 @@
       <c r="J36" s="31"/>
       <c r="K36" s="31"/>
       <c r="L36" s="31"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="33"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="32"/>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="33"/>
@@ -2516,19 +2598,20 @@
       <c r="S36" s="33"/>
       <c r="T36" s="33"/>
       <c r="U36" s="33"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="32"/>
       <c r="Z36" s="33"/>
-      <c r="AA36" s="36"/>
+      <c r="AA36" s="33"/>
       <c r="AB36" s="36"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="38"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="37"/>
       <c r="AE36" s="38"/>
-      <c r="AF36" s="39"/>
-    </row>
-    <row r="37" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="39"/>
+    </row>
+    <row r="37" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
@@ -2541,8 +2624,8 @@
       <c r="J37" s="31"/>
       <c r="K37" s="31"/>
       <c r="L37" s="31"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="33"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="32"/>
       <c r="O37" s="33"/>
       <c r="P37" s="33"/>
       <c r="Q37" s="33"/>
@@ -2550,19 +2633,20 @@
       <c r="S37" s="33"/>
       <c r="T37" s="33"/>
       <c r="U37" s="33"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="32"/>
       <c r="Z37" s="33"/>
-      <c r="AA37" s="36"/>
+      <c r="AA37" s="33"/>
       <c r="AB37" s="36"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="38"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="37"/>
       <c r="AE37" s="38"/>
-      <c r="AF37" s="39"/>
-    </row>
-    <row r="38" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="39"/>
+    </row>
+    <row r="38" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -2575,8 +2659,8 @@
       <c r="J38" s="31"/>
       <c r="K38" s="31"/>
       <c r="L38" s="31"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="33"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="32"/>
       <c r="O38" s="33"/>
       <c r="P38" s="33"/>
       <c r="Q38" s="33"/>
@@ -2584,19 +2668,20 @@
       <c r="S38" s="33"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="32"/>
       <c r="Z38" s="33"/>
-      <c r="AA38" s="36"/>
+      <c r="AA38" s="33"/>
       <c r="AB38" s="36"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="38"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="37"/>
       <c r="AE38" s="38"/>
-      <c r="AF38" s="39"/>
-    </row>
-    <row r="39" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="39"/>
+    </row>
+    <row r="39" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
@@ -2609,8 +2694,8 @@
       <c r="J39" s="31"/>
       <c r="K39" s="31"/>
       <c r="L39" s="31"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="33"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="32"/>
       <c r="O39" s="33"/>
       <c r="P39" s="33"/>
       <c r="Q39" s="33"/>
@@ -2618,19 +2703,20 @@
       <c r="S39" s="33"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="32"/>
       <c r="Z39" s="33"/>
-      <c r="AA39" s="36"/>
+      <c r="AA39" s="33"/>
       <c r="AB39" s="36"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="38"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="37"/>
       <c r="AE39" s="38"/>
-      <c r="AF39" s="39"/>
-    </row>
-    <row r="40" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="39"/>
+    </row>
+    <row r="40" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
@@ -2643,8 +2729,8 @@
       <c r="J40" s="31"/>
       <c r="K40" s="31"/>
       <c r="L40" s="31"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="33"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="32"/>
       <c r="O40" s="33"/>
       <c r="P40" s="33"/>
       <c r="Q40" s="33"/>
@@ -2652,19 +2738,20 @@
       <c r="S40" s="33"/>
       <c r="T40" s="33"/>
       <c r="U40" s="33"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="32"/>
       <c r="Z40" s="33"/>
-      <c r="AA40" s="36"/>
+      <c r="AA40" s="33"/>
       <c r="AB40" s="36"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="38"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="37"/>
       <c r="AE40" s="38"/>
-      <c r="AF40" s="39"/>
-    </row>
-    <row r="41" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="39"/>
+    </row>
+    <row r="41" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54"/>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -2677,8 +2764,8 @@
       <c r="J41" s="31"/>
       <c r="K41" s="31"/>
       <c r="L41" s="31"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="33"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="32"/>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33"/>
@@ -2686,19 +2773,20 @@
       <c r="S41" s="33"/>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="32"/>
       <c r="Z41" s="33"/>
-      <c r="AA41" s="36"/>
+      <c r="AA41" s="33"/>
       <c r="AB41" s="36"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="38"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="37"/>
       <c r="AE41" s="38"/>
-      <c r="AF41" s="39"/>
-    </row>
-    <row r="42" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF41" s="38"/>
+      <c r="AG41" s="39"/>
+    </row>
+    <row r="42" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54"/>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -2711,8 +2799,8 @@
       <c r="J42" s="31"/>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="33"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="32"/>
       <c r="O42" s="33"/>
       <c r="P42" s="33"/>
       <c r="Q42" s="33"/>
@@ -2720,19 +2808,20 @@
       <c r="S42" s="33"/>
       <c r="T42" s="33"/>
       <c r="U42" s="33"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="32"/>
       <c r="Z42" s="33"/>
-      <c r="AA42" s="36"/>
+      <c r="AA42" s="33"/>
       <c r="AB42" s="36"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="38"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="37"/>
       <c r="AE42" s="38"/>
-      <c r="AF42" s="39"/>
-    </row>
-    <row r="43" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="39"/>
+    </row>
+    <row r="43" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54"/>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -2745,8 +2834,8 @@
       <c r="J43" s="31"/>
       <c r="K43" s="31"/>
       <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="33"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="32"/>
       <c r="O43" s="33"/>
       <c r="P43" s="33"/>
       <c r="Q43" s="33"/>
@@ -2754,19 +2843,20 @@
       <c r="S43" s="33"/>
       <c r="T43" s="33"/>
       <c r="U43" s="33"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="32"/>
       <c r="Z43" s="33"/>
-      <c r="AA43" s="36"/>
+      <c r="AA43" s="33"/>
       <c r="AB43" s="36"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="38"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="37"/>
       <c r="AE43" s="38"/>
-      <c r="AF43" s="23"/>
-    </row>
-    <row r="44" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="23"/>
+    </row>
+    <row r="44" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -2779,8 +2869,8 @@
       <c r="J44" s="31"/>
       <c r="K44" s="31"/>
       <c r="L44" s="31"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="33"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="32"/>
       <c r="O44" s="33"/>
       <c r="P44" s="33"/>
       <c r="Q44" s="33"/>
@@ -2788,19 +2878,20 @@
       <c r="S44" s="33"/>
       <c r="T44" s="33"/>
       <c r="U44" s="33"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="33"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="32"/>
       <c r="Z44" s="33"/>
-      <c r="AA44" s="36"/>
+      <c r="AA44" s="33"/>
       <c r="AB44" s="36"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="38"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="37"/>
       <c r="AE44" s="38"/>
-      <c r="AF44" s="23"/>
-    </row>
-    <row r="45" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="23"/>
+    </row>
+    <row r="45" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54"/>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
@@ -2813,8 +2904,8 @@
       <c r="J45" s="31"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="33"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="32"/>
       <c r="O45" s="33"/>
       <c r="P45" s="33"/>
       <c r="Q45" s="33"/>
@@ -2822,19 +2913,20 @@
       <c r="S45" s="33"/>
       <c r="T45" s="33"/>
       <c r="U45" s="33"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="32"/>
       <c r="Z45" s="33"/>
-      <c r="AA45" s="36"/>
+      <c r="AA45" s="33"/>
       <c r="AB45" s="36"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="38"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="37"/>
       <c r="AE45" s="38"/>
-      <c r="AF45" s="23"/>
-    </row>
-    <row r="46" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF45" s="38"/>
+      <c r="AG45" s="23"/>
+    </row>
+    <row r="46" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54"/>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
@@ -2847,8 +2939,8 @@
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
       <c r="L46" s="31"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="33"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="32"/>
       <c r="O46" s="33"/>
       <c r="P46" s="33"/>
       <c r="Q46" s="33"/>
@@ -2856,19 +2948,20 @@
       <c r="S46" s="33"/>
       <c r="T46" s="33"/>
       <c r="U46" s="33"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="32"/>
       <c r="Z46" s="33"/>
-      <c r="AA46" s="36"/>
+      <c r="AA46" s="33"/>
       <c r="AB46" s="36"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="38"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="37"/>
       <c r="AE46" s="38"/>
-      <c r="AF46" s="23"/>
-    </row>
-    <row r="47" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF46" s="38"/>
+      <c r="AG46" s="23"/>
+    </row>
+    <row r="47" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54"/>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
@@ -2881,8 +2974,8 @@
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
       <c r="L47" s="31"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="33"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="32"/>
       <c r="O47" s="33"/>
       <c r="P47" s="33"/>
       <c r="Q47" s="33"/>
@@ -2890,19 +2983,20 @@
       <c r="S47" s="33"/>
       <c r="T47" s="33"/>
       <c r="U47" s="33"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="32"/>
       <c r="Z47" s="33"/>
-      <c r="AA47" s="36"/>
+      <c r="AA47" s="33"/>
       <c r="AB47" s="36"/>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="38"/>
+      <c r="AC47" s="36"/>
+      <c r="AD47" s="37"/>
       <c r="AE47" s="38"/>
-      <c r="AF47" s="23"/>
-    </row>
-    <row r="48" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF47" s="38"/>
+      <c r="AG47" s="23"/>
+    </row>
+    <row r="48" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="54"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -2915,8 +3009,8 @@
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
       <c r="L48" s="31"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="33"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="32"/>
       <c r="O48" s="33"/>
       <c r="P48" s="33"/>
       <c r="Q48" s="33"/>
@@ -2924,19 +3018,20 @@
       <c r="S48" s="33"/>
       <c r="T48" s="33"/>
       <c r="U48" s="33"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="33"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="32"/>
       <c r="Z48" s="33"/>
-      <c r="AA48" s="36"/>
+      <c r="AA48" s="33"/>
       <c r="AB48" s="36"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="38"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="37"/>
       <c r="AE48" s="38"/>
-      <c r="AF48" s="23"/>
-    </row>
-    <row r="49" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF48" s="38"/>
+      <c r="AG48" s="23"/>
+    </row>
+    <row r="49" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54"/>
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
@@ -2949,8 +3044,8 @@
       <c r="J49" s="31"/>
       <c r="K49" s="31"/>
       <c r="L49" s="31"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="33"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="32"/>
       <c r="O49" s="33"/>
       <c r="P49" s="33"/>
       <c r="Q49" s="33"/>
@@ -2958,19 +3053,20 @@
       <c r="S49" s="33"/>
       <c r="T49" s="33"/>
       <c r="U49" s="33"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="32"/>
       <c r="Z49" s="33"/>
-      <c r="AA49" s="36"/>
+      <c r="AA49" s="33"/>
       <c r="AB49" s="36"/>
-      <c r="AC49" s="37"/>
-      <c r="AD49" s="38"/>
+      <c r="AC49" s="36"/>
+      <c r="AD49" s="37"/>
       <c r="AE49" s="38"/>
-      <c r="AF49" s="23"/>
-    </row>
-    <row r="50" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF49" s="38"/>
+      <c r="AG49" s="23"/>
+    </row>
+    <row r="50" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
@@ -2983,8 +3079,8 @@
       <c r="J50" s="31"/>
       <c r="K50" s="31"/>
       <c r="L50" s="31"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="33"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="32"/>
       <c r="O50" s="33"/>
       <c r="P50" s="33"/>
       <c r="Q50" s="33"/>
@@ -2992,19 +3088,20 @@
       <c r="S50" s="33"/>
       <c r="T50" s="33"/>
       <c r="U50" s="33"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="33"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="32"/>
       <c r="Z50" s="33"/>
-      <c r="AA50" s="36"/>
+      <c r="AA50" s="33"/>
       <c r="AB50" s="36"/>
-      <c r="AC50" s="37"/>
-      <c r="AD50" s="38"/>
+      <c r="AC50" s="36"/>
+      <c r="AD50" s="37"/>
       <c r="AE50" s="38"/>
-      <c r="AF50" s="23"/>
-    </row>
-    <row r="51" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="23"/>
+    </row>
+    <row r="51" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -3017,8 +3114,8 @@
       <c r="J51" s="31"/>
       <c r="K51" s="31"/>
       <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="33"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="32"/>
       <c r="O51" s="33"/>
       <c r="P51" s="33"/>
       <c r="Q51" s="33"/>
@@ -3026,19 +3123,20 @@
       <c r="S51" s="33"/>
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="32"/>
       <c r="Z51" s="33"/>
-      <c r="AA51" s="36"/>
+      <c r="AA51" s="33"/>
       <c r="AB51" s="36"/>
-      <c r="AC51" s="37"/>
-      <c r="AD51" s="38"/>
+      <c r="AC51" s="36"/>
+      <c r="AD51" s="37"/>
       <c r="AE51" s="38"/>
-      <c r="AF51" s="23"/>
-    </row>
-    <row r="52" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF51" s="38"/>
+      <c r="AG51" s="23"/>
+    </row>
+    <row r="52" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -3051,8 +3149,8 @@
       <c r="J52" s="31"/>
       <c r="K52" s="31"/>
       <c r="L52" s="31"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="33"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="32"/>
       <c r="O52" s="33"/>
       <c r="P52" s="33"/>
       <c r="Q52" s="33"/>
@@ -3060,19 +3158,20 @@
       <c r="S52" s="33"/>
       <c r="T52" s="33"/>
       <c r="U52" s="33"/>
-      <c r="V52" s="32"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="32"/>
       <c r="Z52" s="33"/>
-      <c r="AA52" s="36"/>
+      <c r="AA52" s="33"/>
       <c r="AB52" s="36"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="38"/>
+      <c r="AC52" s="36"/>
+      <c r="AD52" s="37"/>
       <c r="AE52" s="38"/>
-      <c r="AF52" s="23"/>
-    </row>
-    <row r="53" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF52" s="38"/>
+      <c r="AG52" s="23"/>
+    </row>
+    <row r="53" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="54"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -3085,8 +3184,8 @@
       <c r="J53" s="31"/>
       <c r="K53" s="31"/>
       <c r="L53" s="31"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="33"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="32"/>
       <c r="O53" s="33"/>
       <c r="P53" s="33"/>
       <c r="Q53" s="33"/>
@@ -3094,19 +3193,20 @@
       <c r="S53" s="33"/>
       <c r="T53" s="33"/>
       <c r="U53" s="33"/>
-      <c r="V53" s="32"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="32"/>
       <c r="Z53" s="33"/>
-      <c r="AA53" s="36"/>
+      <c r="AA53" s="33"/>
       <c r="AB53" s="36"/>
-      <c r="AC53" s="37"/>
-      <c r="AD53" s="38"/>
+      <c r="AC53" s="36"/>
+      <c r="AD53" s="37"/>
       <c r="AE53" s="38"/>
-      <c r="AF53" s="39"/>
-    </row>
-    <row r="54" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF53" s="38"/>
+      <c r="AG53" s="39"/>
+    </row>
+    <row r="54" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -3119,8 +3219,8 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="33"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="32"/>
       <c r="O54" s="33"/>
       <c r="P54" s="33"/>
       <c r="Q54" s="33"/>
@@ -3128,19 +3228,20 @@
       <c r="S54" s="33"/>
       <c r="T54" s="33"/>
       <c r="U54" s="33"/>
-      <c r="V54" s="32"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="32"/>
-      <c r="Y54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="32"/>
       <c r="Z54" s="33"/>
-      <c r="AA54" s="36"/>
+      <c r="AA54" s="33"/>
       <c r="AB54" s="36"/>
-      <c r="AC54" s="37"/>
-      <c r="AD54" s="38"/>
+      <c r="AC54" s="36"/>
+      <c r="AD54" s="37"/>
       <c r="AE54" s="38"/>
-      <c r="AF54" s="39"/>
-    </row>
-    <row r="55" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF54" s="38"/>
+      <c r="AG54" s="39"/>
+    </row>
+    <row r="55" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="54"/>
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
@@ -3153,8 +3254,8 @@
       <c r="J55" s="31"/>
       <c r="K55" s="31"/>
       <c r="L55" s="31"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="33"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="32"/>
       <c r="O55" s="33"/>
       <c r="P55" s="33"/>
       <c r="Q55" s="33"/>
@@ -3162,19 +3263,20 @@
       <c r="S55" s="33"/>
       <c r="T55" s="33"/>
       <c r="U55" s="33"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="32"/>
       <c r="Z55" s="33"/>
-      <c r="AA55" s="36"/>
+      <c r="AA55" s="33"/>
       <c r="AB55" s="36"/>
-      <c r="AC55" s="37"/>
-      <c r="AD55" s="38"/>
+      <c r="AC55" s="36"/>
+      <c r="AD55" s="37"/>
       <c r="AE55" s="38"/>
-      <c r="AF55" s="39"/>
-    </row>
-    <row r="56" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF55" s="38"/>
+      <c r="AG55" s="39"/>
+    </row>
+    <row r="56" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="54"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -3187,7 +3289,7 @@
       <c r="J56" s="31"/>
       <c r="K56" s="31"/>
       <c r="L56" s="31"/>
-      <c r="M56" s="33"/>
+      <c r="M56" s="31"/>
       <c r="N56" s="33"/>
       <c r="O56" s="33"/>
       <c r="P56" s="33"/>
@@ -3196,19 +3298,20 @@
       <c r="S56" s="33"/>
       <c r="T56" s="33"/>
       <c r="U56" s="33"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="32"/>
       <c r="Z56" s="33"/>
-      <c r="AA56" s="36"/>
+      <c r="AA56" s="33"/>
       <c r="AB56" s="36"/>
-      <c r="AC56" s="37"/>
-      <c r="AD56" s="38"/>
+      <c r="AC56" s="36"/>
+      <c r="AD56" s="37"/>
       <c r="AE56" s="38"/>
-      <c r="AF56" s="39"/>
-    </row>
-    <row r="57" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF56" s="38"/>
+      <c r="AG56" s="39"/>
+    </row>
+    <row r="57" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -3221,7 +3324,7 @@
       <c r="J57" s="31"/>
       <c r="K57" s="31"/>
       <c r="L57" s="31"/>
-      <c r="M57" s="33"/>
+      <c r="M57" s="31"/>
       <c r="N57" s="33"/>
       <c r="O57" s="33"/>
       <c r="P57" s="33"/>
@@ -3230,19 +3333,20 @@
       <c r="S57" s="33"/>
       <c r="T57" s="33"/>
       <c r="U57" s="33"/>
-      <c r="V57" s="32"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="32"/>
-      <c r="Y57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="32"/>
       <c r="Z57" s="33"/>
-      <c r="AA57" s="36"/>
+      <c r="AA57" s="33"/>
       <c r="AB57" s="36"/>
-      <c r="AC57" s="37"/>
-      <c r="AD57" s="38"/>
+      <c r="AC57" s="36"/>
+      <c r="AD57" s="37"/>
       <c r="AE57" s="38"/>
-      <c r="AF57" s="39"/>
-    </row>
-    <row r="58" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF57" s="38"/>
+      <c r="AG57" s="39"/>
+    </row>
+    <row r="58" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54"/>
       <c r="B58" s="54"/>
       <c r="C58" s="54"/>
@@ -3255,7 +3359,7 @@
       <c r="J58" s="31"/>
       <c r="K58" s="31"/>
       <c r="L58" s="31"/>
-      <c r="M58" s="33"/>
+      <c r="M58" s="31"/>
       <c r="N58" s="33"/>
       <c r="O58" s="33"/>
       <c r="P58" s="33"/>
@@ -3264,19 +3368,20 @@
       <c r="S58" s="33"/>
       <c r="T58" s="33"/>
       <c r="U58" s="33"/>
-      <c r="V58" s="32"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="32"/>
-      <c r="Y58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="32"/>
       <c r="Z58" s="33"/>
-      <c r="AA58" s="36"/>
+      <c r="AA58" s="33"/>
       <c r="AB58" s="36"/>
-      <c r="AC58" s="37"/>
-      <c r="AD58" s="38"/>
+      <c r="AC58" s="36"/>
+      <c r="AD58" s="37"/>
       <c r="AE58" s="38"/>
-      <c r="AF58" s="39"/>
-    </row>
-    <row r="59" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF58" s="38"/>
+      <c r="AG58" s="39"/>
+    </row>
+    <row r="59" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54"/>
       <c r="B59" s="54"/>
       <c r="C59" s="54"/>
@@ -3289,7 +3394,7 @@
       <c r="J59" s="31"/>
       <c r="K59" s="31"/>
       <c r="L59" s="31"/>
-      <c r="M59" s="33"/>
+      <c r="M59" s="31"/>
       <c r="N59" s="33"/>
       <c r="O59" s="33"/>
       <c r="P59" s="33"/>
@@ -3298,19 +3403,20 @@
       <c r="S59" s="33"/>
       <c r="T59" s="33"/>
       <c r="U59" s="33"/>
-      <c r="V59" s="32"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="32"/>
-      <c r="Y59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="32"/>
       <c r="Z59" s="33"/>
-      <c r="AA59" s="36"/>
+      <c r="AA59" s="33"/>
       <c r="AB59" s="36"/>
-      <c r="AC59" s="37"/>
-      <c r="AD59" s="38"/>
+      <c r="AC59" s="36"/>
+      <c r="AD59" s="37"/>
       <c r="AE59" s="38"/>
-      <c r="AF59" s="39"/>
-    </row>
-    <row r="60" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF59" s="38"/>
+      <c r="AG59" s="39"/>
+    </row>
+    <row r="60" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54"/>
       <c r="B60" s="54"/>
       <c r="C60" s="54"/>
@@ -3323,7 +3429,7 @@
       <c r="J60" s="31"/>
       <c r="K60" s="31"/>
       <c r="L60" s="31"/>
-      <c r="M60" s="33"/>
+      <c r="M60" s="31"/>
       <c r="N60" s="33"/>
       <c r="O60" s="33"/>
       <c r="P60" s="33"/>
@@ -3332,19 +3438,20 @@
       <c r="S60" s="33"/>
       <c r="T60" s="33"/>
       <c r="U60" s="33"/>
-      <c r="V60" s="32"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="32"/>
-      <c r="Y60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="32"/>
       <c r="Z60" s="33"/>
-      <c r="AA60" s="36"/>
+      <c r="AA60" s="33"/>
       <c r="AB60" s="36"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="38"/>
+      <c r="AC60" s="36"/>
+      <c r="AD60" s="37"/>
       <c r="AE60" s="38"/>
-      <c r="AF60" s="39"/>
-    </row>
-    <row r="61" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF60" s="38"/>
+      <c r="AG60" s="39"/>
+    </row>
+    <row r="61" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54"/>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -3357,7 +3464,7 @@
       <c r="J61" s="31"/>
       <c r="K61" s="31"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="33"/>
+      <c r="M61" s="31"/>
       <c r="N61" s="33"/>
       <c r="O61" s="33"/>
       <c r="P61" s="33"/>
@@ -3366,19 +3473,20 @@
       <c r="S61" s="33"/>
       <c r="T61" s="33"/>
       <c r="U61" s="33"/>
-      <c r="V61" s="32"/>
-      <c r="W61" s="34"/>
-      <c r="X61" s="32"/>
-      <c r="Y61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="32"/>
       <c r="Z61" s="33"/>
-      <c r="AA61" s="36"/>
+      <c r="AA61" s="33"/>
       <c r="AB61" s="36"/>
-      <c r="AC61" s="37"/>
-      <c r="AD61" s="38"/>
+      <c r="AC61" s="36"/>
+      <c r="AD61" s="37"/>
       <c r="AE61" s="38"/>
-      <c r="AF61" s="39"/>
-    </row>
-    <row r="62" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF61" s="38"/>
+      <c r="AG61" s="39"/>
+    </row>
+    <row r="62" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54"/>
       <c r="B62" s="54"/>
       <c r="C62" s="54"/>
@@ -3391,7 +3499,7 @@
       <c r="J62" s="31"/>
       <c r="K62" s="31"/>
       <c r="L62" s="31"/>
-      <c r="M62" s="33"/>
+      <c r="M62" s="31"/>
       <c r="N62" s="33"/>
       <c r="O62" s="33"/>
       <c r="P62" s="33"/>
@@ -3400,19 +3508,20 @@
       <c r="S62" s="33"/>
       <c r="T62" s="33"/>
       <c r="U62" s="33"/>
-      <c r="V62" s="32"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="32"/>
-      <c r="Y62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="32"/>
       <c r="Z62" s="33"/>
-      <c r="AA62" s="36"/>
+      <c r="AA62" s="33"/>
       <c r="AB62" s="36"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="38"/>
+      <c r="AC62" s="36"/>
+      <c r="AD62" s="37"/>
       <c r="AE62" s="38"/>
-      <c r="AF62" s="39"/>
-    </row>
-    <row r="63" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF62" s="38"/>
+      <c r="AG62" s="39"/>
+    </row>
+    <row r="63" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="54"/>
       <c r="B63" s="54"/>
       <c r="C63" s="54"/>
@@ -3425,8 +3534,8 @@
       <c r="J63" s="31"/>
       <c r="K63" s="31"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="36"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="33"/>
       <c r="O63" s="36"/>
       <c r="P63" s="36"/>
       <c r="Q63" s="36"/>
@@ -3434,19 +3543,20 @@
       <c r="S63" s="36"/>
       <c r="T63" s="36"/>
       <c r="U63" s="36"/>
-      <c r="V63" s="38"/>
+      <c r="V63" s="36"/>
       <c r="W63" s="38"/>
-      <c r="X63" s="36"/>
+      <c r="X63" s="38"/>
       <c r="Y63" s="36"/>
       <c r="Z63" s="36"/>
       <c r="AA63" s="36"/>
       <c r="AB63" s="36"/>
-      <c r="AC63" s="37"/>
-      <c r="AD63" s="38"/>
+      <c r="AC63" s="36"/>
+      <c r="AD63" s="37"/>
       <c r="AE63" s="38"/>
-      <c r="AF63" s="39"/>
-    </row>
-    <row r="64" spans="1:32" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF63" s="38"/>
+      <c r="AG63" s="39"/>
+    </row>
+    <row r="64" spans="1:33" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -3459,7 +3569,7 @@
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
-      <c r="M64" s="36"/>
+      <c r="M64" s="21"/>
       <c r="N64" s="36"/>
       <c r="O64" s="36"/>
       <c r="P64" s="36"/>
@@ -3469,18 +3579,19 @@
       <c r="T64" s="36"/>
       <c r="U64" s="36"/>
       <c r="V64" s="36"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="38"/>
       <c r="Y64" s="36"/>
       <c r="Z64" s="36"/>
       <c r="AA64" s="36"/>
       <c r="AB64" s="36"/>
-      <c r="AC64" s="37"/>
-      <c r="AD64" s="38"/>
+      <c r="AC64" s="36"/>
+      <c r="AD64" s="37"/>
       <c r="AE64" s="38"/>
-      <c r="AF64" s="39"/>
-    </row>
-    <row r="65" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="AF64" s="38"/>
+      <c r="AG64" s="39"/>
+    </row>
+    <row r="65" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
@@ -3490,7 +3601,7 @@
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
       <c r="L65" s="21"/>
-      <c r="M65" s="36"/>
+      <c r="M65" s="21"/>
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
       <c r="P65" s="36"/>
@@ -3500,18 +3611,19 @@
       <c r="T65" s="36"/>
       <c r="U65" s="36"/>
       <c r="V65" s="36"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="36"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="38"/>
       <c r="Y65" s="36"/>
       <c r="Z65" s="36"/>
       <c r="AA65" s="36"/>
       <c r="AB65" s="36"/>
-      <c r="AC65" s="37"/>
-      <c r="AD65" s="38"/>
+      <c r="AC65" s="36"/>
+      <c r="AD65" s="37"/>
       <c r="AE65" s="38"/>
-      <c r="AF65" s="39"/>
-    </row>
-    <row r="66" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="39"/>
+    </row>
+    <row r="66" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
@@ -3521,7 +3633,7 @@
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
-      <c r="M66" s="36"/>
+      <c r="M66" s="21"/>
       <c r="N66" s="36"/>
       <c r="O66" s="36"/>
       <c r="P66" s="36"/>
@@ -3531,18 +3643,19 @@
       <c r="T66" s="36"/>
       <c r="U66" s="36"/>
       <c r="V66" s="36"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="38"/>
       <c r="Y66" s="36"/>
       <c r="Z66" s="36"/>
       <c r="AA66" s="36"/>
       <c r="AB66" s="36"/>
-      <c r="AC66" s="37"/>
-      <c r="AD66" s="38"/>
+      <c r="AC66" s="36"/>
+      <c r="AD66" s="37"/>
       <c r="AE66" s="38"/>
-      <c r="AF66" s="39"/>
-    </row>
-    <row r="67" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="AF66" s="38"/>
+      <c r="AG66" s="39"/>
+    </row>
+    <row r="67" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
@@ -3552,7 +3665,7 @@
       <c r="J67" s="21"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
-      <c r="M67" s="36"/>
+      <c r="M67" s="21"/>
       <c r="N67" s="36"/>
       <c r="O67" s="36"/>
       <c r="P67" s="36"/>
@@ -3562,18 +3675,19 @@
       <c r="T67" s="36"/>
       <c r="U67" s="36"/>
       <c r="V67" s="36"/>
-      <c r="W67" s="38"/>
-      <c r="X67" s="36"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="38"/>
       <c r="Y67" s="36"/>
       <c r="Z67" s="36"/>
       <c r="AA67" s="36"/>
       <c r="AB67" s="36"/>
-      <c r="AC67" s="37"/>
-      <c r="AD67" s="38"/>
+      <c r="AC67" s="36"/>
+      <c r="AD67" s="37"/>
       <c r="AE67" s="38"/>
-      <c r="AF67" s="39"/>
-    </row>
-    <row r="68" spans="4:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF67" s="38"/>
+      <c r="AG67" s="39"/>
+    </row>
+    <row r="68" spans="4:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
@@ -3583,8 +3697,8 @@
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
       <c r="L68" s="21"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="5"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="36"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
@@ -3593,18 +3707,19 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="7"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
-      <c r="AC68" s="7"/>
+      <c r="AC68" s="5"/>
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
-      <c r="AF68" s="6"/>
-    </row>
-    <row r="69" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="6"/>
+    </row>
+    <row r="69" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
@@ -3614,27 +3729,28 @@
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
-      <c r="M69" s="5"/>
-    </row>
-    <row r="70" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="W70" s="34"/>
-    </row>
-    <row r="72" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="W72" s="9"/>
-    </row>
-    <row r="73" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="W73" s="9"/>
-    </row>
-    <row r="74" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="W74" s="9"/>
-    </row>
-    <row r="75" spans="4:32" x14ac:dyDescent="0.2">
-      <c r="W75" s="9"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="X70" s="34"/>
+    </row>
+    <row r="72" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="X72" s="9"/>
+    </row>
+    <row r="73" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="X73" s="9"/>
+    </row>
+    <row r="74" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="X74" s="9"/>
+    </row>
+    <row r="75" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="X75" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3672,7 +3788,7 @@
         <v>1429</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -3686,7 +3802,7 @@
         <v>595</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -3700,7 +3816,7 @@
         <v>581</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -3714,7 +3830,7 @@
         <v>524</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -3728,7 +3844,7 @@
         <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -3742,7 +3858,7 @@
         <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -3756,7 +3872,7 @@
         <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -3770,7 +3886,7 @@
         <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -3784,7 +3900,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -3798,7 +3914,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -3812,7 +3928,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -3826,7 +3942,7 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
